--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,41 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\vsc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A443E3-2243-4740-BE76-79562620056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5640" yWindow="4110" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5640" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>고유번호</t>
+  </si>
+  <si>
+    <t>추첨권 개수</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,87 +70,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,218 +391,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>고유번호</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>추첨권 개수</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Bitween</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>0xd063541c242503c</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>김황조</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>0x41afc631a020000</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>박상혁</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>0x519ed92fd820001</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>김한솔</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>0x5b6ee6505420001</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>정푸름</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>0xae16d2ebb420016</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>이한</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>0xafae50143420001</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>윤지영</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>0xb0ab1d442400029</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>정해원</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>0xb1383355546000b</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>학생회 이경민</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>0xb1c1d508b50000a</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>정종우</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>0xb4069fafad0000a</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>이진</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>0xb8131c3810a0047</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>cadcasdv</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>0xd06ae73eb426000</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/userDB.xlsx
+++ b/userDB.xlsx
@@ -1,60 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJ\vsc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A443E3-2243-4740-BE76-79562620056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5640" yWindow="4110" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>고유번호</t>
-  </si>
-  <si>
-    <t>추첨권 개수</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,28 +51,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,29 +431,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>고유번호</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>추첨권 개수</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Keaveno</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0xd1e2f654ac27032</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bitween</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0xd063541c242503c</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>김건우</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0x34160f974800000</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>이민형</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0x3f2b6a59a820000</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>윤석범</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0x3f35f672e800000</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>김황조</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0x41afc631a020000</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>김민규</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0x4c7c1e23d44000b</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>강수민</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0x4d97cd705c20001</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>김동현</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0x4e426cb48000001</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>박상혁</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0x519ed92fd820001</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>미니</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0x54673cb5dc4000c</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>최서환</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0x55e4e01e082000c</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>정영인</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0x56b4063b6c00001</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>서동연</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0x5ac96b77a00000b</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>조병윤</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0x5d9fe0a8b84000b</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>이태연</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0x625b0184c840000</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>슬토</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0x6434182f9c00002</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>정현민</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0x6f3918762800000</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>국자</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0x70d6e6562040001</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>jhs030526</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0x7fbb739e4020003</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>김예솔</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0x977ab1c2b42001f</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>정푸름</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0xae16d2ebb420016</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>이한</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0xafae50143420001</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>윤지영</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0xb0ab1d442400029</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>학생회 정해원</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0xb1383355546000b</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>한서윤</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0xb1b8d331ec00014</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>이경민</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0xb1c1d508b50000a</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>정종우</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0xb4069fafad0000a</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>이진</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0xb8131c3810a0047</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>양성준</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0xc6f51849f82501e</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>서현재</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0xcf4f76ac4428035</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>신윤우</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x59d83367f42000b</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>정세현</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0xcf49a50fac25014</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>유재호</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x50169a5ae400001</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>김연태22학번</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0xd1e36b0ee02500a</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>김종호</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x3c62d627c420001</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>김다은</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0xcf4b19215023016</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>2</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>조재영</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x8c62fbe4c800028</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>고예린</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x9e10ea493c4003c</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>박동준</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0xd1e360526826001</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>조우진</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0xc3a7c87b9820014</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>장하연</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0xd0dab0e52822000</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>최용원</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0xced8af54ec26016</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>장하연</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0xa52969398800098</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>이우주</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x9e47ff1fa04002a</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>유승희</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x6e946200484000d</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>장준영</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x6865ed62142001e</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>김연태</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0xd1e3c9ba682200a</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>심청송</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0xcf505d2ae82701e</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>whans</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x4b9af17df420002</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>김한솔</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x5b6ee6505420001</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>나혜연</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0xaddba10de8e0028</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DVRP</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x37cd5346b420001</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>린올이바</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x5da08e4ab00000a</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>김경태</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x47a94fd2b440002</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>박아름</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0xcf50764bb028000</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>